--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3930.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.451521359149152</v>
+        <v>0.4571641683578491</v>
       </c>
       <c r="B1">
-        <v>2.379334441030406</v>
+        <v>0.9303494095802307</v>
       </c>
       <c r="C1">
-        <v>6.427892352443992</v>
+        <v>1.03879976272583</v>
       </c>
       <c r="D1">
-        <v>3.785410109743198</v>
+        <v>5.127120494842529</v>
       </c>
       <c r="E1">
-        <v>1.114280045626973</v>
+        <v>1.270225882530212</v>
       </c>
     </row>
   </sheetData>
